--- a/Data_clean/MCAS/Estados_US/Edos_USA_2014/KANSAS_2014.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2014/KANSAS_2014.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Cosío</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>San Francisco De Los Romo</t>
@@ -476,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tepezalá</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -636,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -711,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -724,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Copainalá</t>
@@ -737,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -776,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Huixtán</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Pantelhó</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tila</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Aldama</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Ascensión</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Bachíniva</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Balleza</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Batopilas</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Bocoyna</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Buenaventura</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -1150,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Carichí</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Casas Grandes</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Coronado</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Coyame Del Sotol</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Cusihuiriachi</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Dr. Belisario Domínguez</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Galeana</t>
@@ -1280,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -1293,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Gran Morelos</t>
@@ -1306,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Guachochi</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -1332,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Guadalupe Y Calvo</t>
@@ -1345,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Guazapares</t>
@@ -1358,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -1371,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -1384,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Huejotitán</t>
@@ -1397,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -1410,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Janos</t>
@@ -1423,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -1436,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1449,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Julimes</t>
@@ -1462,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>La Cruz</t>
@@ -1475,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>López</t>
@@ -1488,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -1501,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Manuel Benavides</t>
@@ -1514,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Matachí</t>
@@ -1527,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -1540,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -1553,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -1566,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -1579,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Nonoava</t>
@@ -1592,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -1605,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1618,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Ojinaga</t>
@@ -1631,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Praxedis G. Guerrero</t>
@@ -1644,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Riva Palacio</t>
@@ -1657,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Rosales</t>
@@ -1670,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -1683,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>San Francisco De Conchos</t>
@@ -1696,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>San Francisco Del Oro</t>
@@ -1709,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Santa Bárbara</t>
@@ -1722,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Santa Isabel</t>
@@ -1735,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Satevó</t>
@@ -1748,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -1761,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Temósachi</t>
@@ -1774,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Urique</t>
@@ -1787,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Valle De Zaragoza</t>
@@ -1800,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1831,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1844,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -1857,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1870,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -1883,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1896,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1909,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Sabinas</t>
@@ -1922,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -1935,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>San Buenaventura</t>
@@ -1948,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>San Juan De Sabinas</t>
@@ -1961,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1974,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Sierra Mojada</t>
@@ -1987,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -2000,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -2013,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2062,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Coquimatlán</t>
@@ -2075,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -2124,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -2137,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -2150,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -2163,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -2176,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -2189,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -2202,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -2215,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -2228,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -2241,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -2254,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -2267,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -2280,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -2293,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -2306,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -2355,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Coneto De Comonfort</t>
@@ -2368,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Cuencamé</t>
@@ -2381,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -2394,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -2407,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -2420,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Gral. Simón Bolívar</t>
@@ -2433,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -2446,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Guanaceví</t>
@@ -2459,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -2472,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Indé</t>
@@ -2485,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -2498,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -2511,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -2524,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Nazas</t>
@@ -2537,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Nombre De Dios</t>
@@ -2550,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Nuevo Ideal</t>
@@ -2563,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -2576,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Otáez</t>
@@ -2589,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Pánuco De Coronado</t>
@@ -2602,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Peñón Blanco</t>
@@ -2615,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Poanas</t>
@@ -2628,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -2641,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Rodeo</t>
@@ -2654,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -2667,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>San Dimas</t>
@@ -2680,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>San Juan De Guadalupe</t>
@@ -2693,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -2706,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>San Luis Del Cordero</t>
@@ -2719,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>San Pedro Del Gallo</t>
@@ -2732,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Santa Clara</t>
@@ -2745,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -2758,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Súchil</t>
@@ -2771,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -2784,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Tlahualilo</t>
@@ -2797,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -2846,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Acolman</t>
@@ -2859,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Aculco</t>
@@ -2872,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Amanalco</t>
@@ -2885,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -2898,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Atizapán</t>
@@ -2911,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -2924,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -2937,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -2950,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -2963,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -2976,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -2989,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Coyotepec</t>
@@ -3002,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -3015,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -3028,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -3041,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -3054,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Joquicingo</t>
@@ -3067,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -3080,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Lerma</t>
@@ -3093,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -3106,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Nextlalpan</t>
@@ -3119,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -3132,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -3145,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -3158,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Tecámac</t>
@@ -3171,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -3184,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Temascalapa</t>
@@ -3197,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -3210,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -3223,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -3236,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -3249,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Tianguistenco</t>
@@ -3262,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Timilpan</t>
@@ -3275,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -3288,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -3301,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -3314,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -3327,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -3340,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -3353,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -3366,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Zumpahuacán</t>
@@ -3415,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Acámbaro</t>
@@ -3428,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -3441,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -3454,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -3467,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Atarjea</t>
@@ -3480,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -3493,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Coroneo</t>
@@ -3506,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -3519,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -3532,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -3545,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -3558,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -3571,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -3584,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -3597,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>León</t>
@@ -3610,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -3623,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -3636,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -3649,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -3662,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -3675,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -3688,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -3701,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -3714,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -3727,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>San Diego De La Unión</t>
@@ -3740,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -3753,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -3766,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -3779,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -3792,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -3805,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Tarandacuao</t>
@@ -3818,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -3831,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -3844,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -3857,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -3870,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -3919,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -3932,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -3945,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -3958,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -3971,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -3984,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -3997,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -4010,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -4023,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -4036,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -4049,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -4062,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Buenavista De Cuéllar</t>
@@ -4075,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -4088,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -4101,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Coahuayutla De José María Izazaga</t>
@@ -4114,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -4127,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -4140,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -4153,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -4166,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -4179,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -4192,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Cuautepec</t>
@@ -4205,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -4218,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -4231,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Huamuxtitlán</t>
@@ -4244,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -4257,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -4270,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Ixcateopan De Cuauhtémoc</t>
@@ -4283,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -4296,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -4309,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -4322,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -4335,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -4348,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Mochitlán</t>
@@ -4361,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -4374,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -4387,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Pedro Ascencio Alquisiras</t>
@@ -4400,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -4413,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Pilcaya</t>
@@ -4426,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -4439,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -4452,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -4465,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -4478,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -4491,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -4504,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -4517,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -4530,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -4543,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -4556,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -4569,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -4582,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -4595,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Zitlala</t>
@@ -4644,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -4657,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Ajacuba</t>
@@ -4670,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -4683,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Atlapexco</t>
@@ -4696,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Atotonilco El Grande</t>
@@ -4709,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -4722,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -4735,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -4748,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Epazoyucan</t>
@@ -4761,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -4774,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -4787,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Huejutla De Reyes</t>
@@ -4800,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -4813,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -4826,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Jacala De Ledezma</t>
@@ -4839,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>La Misión</t>
@@ -4852,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Lolotla</t>
@@ -4865,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -4878,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -4891,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -4904,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Molango De Escamilla</t>
@@ -4917,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Nicolás Flores</t>
@@ -4930,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -4943,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -4956,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>San Felipe Orizatlán</t>
@@ -4969,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -4982,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -4995,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -5008,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerrero</t>
@@ -5021,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Tezontepec De Aldama</t>
@@ -5034,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Tlahuelilpan</t>
@@ -5047,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -5060,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Tlaxcoapan</t>
@@ -5073,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -5086,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -5099,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -5112,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Zapotlán De Juárez</t>
@@ -5125,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Zempoala</t>
@@ -5138,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -5187,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Ahualulco De Mercado</t>
@@ -5200,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -5213,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Atengo</t>
@@ -5226,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Atotonilco El Alto</t>
@@ -5239,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -5252,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -5265,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Cañadas De Obregón</t>
@@ -5278,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Chapala</t>
@@ -5291,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Cihuatlán</t>
@@ -5304,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Colotlán</t>
@@ -5317,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -5330,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>El Limón</t>
@@ -5343,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>El Salto</t>
@@ -5356,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -5369,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Guachinango</t>
@@ -5382,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -5395,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Huejúcar</t>
@@ -5408,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Ixtlahuacán De Los Membrillos</t>
@@ -5421,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -5434,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Jamay</t>
@@ -5447,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -5460,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Jocotepec</t>
@@ -5473,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -5486,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -5499,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -5512,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Mascota</t>
@@ -5525,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Mexticacán</t>
@@ -5538,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Mezquitic</t>
@@ -5551,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -5564,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -5577,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -5590,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -5603,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -5616,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -5629,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>San Martín De Hidalgo</t>
@@ -5642,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Sayula</t>
@@ -5655,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -5668,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -5681,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Tenamaxtlán</t>
@@ -5694,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -5707,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Teocuitatlán De Corona</t>
@@ -5720,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -5733,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -5746,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Teuchitlán</t>
@@ -5759,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -5772,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -5785,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Tlaquepaque</t>
@@ -5798,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -5811,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -5824,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Totatiche</t>
@@ -5837,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Tuxcacuesco</t>
@@ -5850,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Tuxcueca</t>
@@ -5863,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -5876,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Unión De San Antonio</t>
@@ -5889,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -5902,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Valle De Juárez</t>
@@ -5915,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Villa Corona</t>
@@ -5928,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -5941,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -5954,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Yahualica De González Gallo</t>
@@ -5967,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -5980,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Zapotitlán De Vadillo</t>
@@ -5993,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -6006,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6037,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Aguililla</t>
@@ -6050,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -6063,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Angamacutiro</t>
@@ -6076,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -6089,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -6102,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -6115,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Charo</t>
@@ -6128,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Chilchota</t>
@@ -6141,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Churumuco</t>
@@ -6154,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -6167,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -6180,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -6193,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Copándaro</t>
@@ -6206,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Cotija</t>
@@ -6219,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -6232,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Ecuandureo</t>
@@ -6245,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -6258,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Erongarícuaro</t>
@@ -6271,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -6284,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Huandacareo</t>
@@ -6297,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Huaniqueo</t>
@@ -6310,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -6323,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Indaparapeo</t>
@@ -6336,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Jacona</t>
@@ -6349,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -6362,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Jiquilpan</t>
@@ -6375,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>José Sixto Verduzco</t>
@@ -6388,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -6401,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -6414,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -6427,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -6440,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Madero</t>
@@ -6453,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -6466,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -6479,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -6492,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Nuevo Parangaricutiro</t>
@@ -6505,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Nuevo Urecho</t>
@@ -6518,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Panindícuaro</t>
@@ -6531,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Parácuaro</t>
@@ -6544,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -6557,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Purépero</t>
@@ -6570,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -6583,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -6596,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -6609,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -6622,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Senguio</t>
@@ -6635,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -6648,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Tancítaro</t>
@@ -6661,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -6674,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Tangancícuaro</t>
@@ -6687,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Taretan</t>
@@ -6700,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -6713,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Tingüindín</t>
@@ -6726,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Tlalpujahua</t>
@@ -6739,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Tlazazalca</t>
@@ -6752,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Tocumbo</t>
@@ -6765,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Tumbiscatío</t>
@@ -6778,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -6791,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -6804,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -6817,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -6830,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -6843,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -6856,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -6869,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Zináparo</t>
@@ -6882,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -6895,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -6908,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -6921,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6952,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -6965,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -6978,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -6991,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -7004,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -7017,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -7030,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Tlaltizapán</t>
@@ -7043,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -7056,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -7069,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Zacatepec De Hidalgo</t>
@@ -7118,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -7131,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -7144,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -7157,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>Ruíz</t>
@@ -7170,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -7183,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -7196,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -7209,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -7222,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -7235,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Xalisco</t>
@@ -7284,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Cadereyta Jiménez</t>
@@ -7297,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Cerralvo</t>
@@ -7310,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>China</t>
@@ -7323,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Dr. Arroyo</t>
@@ -7336,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>Gral. Bravo</t>
@@ -7349,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -7362,6 +9812,11 @@
       </c>
     </row>
     <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
           <t>Linares</t>
@@ -7375,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Montemorelos</t>
@@ -7388,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -7401,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Sabinas Hidalgo</t>
@@ -7414,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -7427,6 +9902,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>San Pedro Garza García</t>
@@ -7476,6 +9956,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>Asunción Nochixtlán</t>
@@ -7489,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>Chalcatongo De Hidalgo</t>
@@ -7502,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -7515,6 +10010,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>Cuyamecalco Villa De Zaragoza</t>
@@ -7528,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>El Barrio De La Soledad</t>
@@ -7541,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -7554,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -7567,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -7580,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Juchitán De Zaragoza</t>
@@ -7593,6 +10118,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>La Compañía</t>
@@ -7606,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -7619,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>Magdalena Tequisistlán</t>
@@ -7632,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -7645,6 +10190,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>Nejapa De Madero</t>
@@ -7658,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -7671,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>Pluma Hidalgo</t>
@@ -7684,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -7697,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>San Francisco Chapulapa</t>
@@ -7710,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>San José Chiltepec</t>
@@ -7723,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>San José Estancia Grande</t>
@@ -7736,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -7749,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -7762,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -7775,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>San Lucas Ojitlán</t>
@@ -7788,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -7801,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -7814,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>San Miguel Tlacamama</t>
@@ -7827,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec - Distr. 22 -</t>
@@ -7840,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -7853,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>San Pedro Sochiápam</t>
@@ -7866,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>San Sebastián Nicananduta</t>
@@ -7879,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>San Vicente Coatlán</t>
@@ -7892,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -7905,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Santa Catarina Zapoquila</t>
@@ -7918,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Santa María Colotepec</t>
@@ -7931,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Santa María Cortijo</t>
@@ -7944,6 +10604,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Santa María Huatulco</t>
@@ -7957,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -7970,6 +10640,11 @@
       </c>
     </row>
     <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
           <t>Santiago Apóstol</t>
@@ -7983,6 +10658,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -7996,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -8009,6 +10694,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>Santiago Llano Grande</t>
@@ -8022,6 +10712,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Santiago Niltepec</t>
@@ -8035,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -8048,6 +10748,11 @@
       </c>
     </row>
     <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -8061,6 +10766,11 @@
       </c>
     </row>
     <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -8074,6 +10784,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -8087,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -8100,6 +10820,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Teotitlán De Flores Magón</t>
@@ -8113,6 +10838,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Tezoatlán De Segura Y Luna</t>
@@ -8126,6 +10856,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Villa De Chilapa De Díaz</t>
@@ -8139,6 +10874,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Villa De Zaachila</t>
@@ -8152,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Villa Sola De Vega</t>
@@ -8165,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Yutanduchi De Guerrero</t>
@@ -8178,6 +10928,11 @@
       </c>
     </row>
     <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -8227,6 +10982,11 @@
       </c>
     </row>
     <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
           <t>Acatzingo</t>
@@ -8240,6 +11000,11 @@
       </c>
     </row>
     <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B592" t="inlineStr">
         <is>
           <t>Amozoc</t>
@@ -8253,6 +11018,11 @@
       </c>
     </row>
     <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -8266,6 +11036,11 @@
       </c>
     </row>
     <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Caxhuacan</t>
@@ -8279,6 +11054,11 @@
       </c>
     </row>
     <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -8292,6 +11072,11 @@
       </c>
     </row>
     <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -8305,6 +11090,11 @@
       </c>
     </row>
     <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -8318,6 +11108,11 @@
       </c>
     </row>
     <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
           <t>Coatzingo</t>
@@ -8331,6 +11126,11 @@
       </c>
     </row>
     <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -8344,6 +11144,11 @@
       </c>
     </row>
     <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B600" t="inlineStr">
         <is>
           <t>Francisco Z. Mena</t>
@@ -8357,6 +11162,11 @@
       </c>
     </row>
     <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B601" t="inlineStr">
         <is>
           <t>Huatlatlauca</t>
@@ -8370,6 +11180,11 @@
       </c>
     </row>
     <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -8383,6 +11198,11 @@
       </c>
     </row>
     <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B603" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -8396,6 +11216,11 @@
       </c>
     </row>
     <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B604" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -8409,6 +11234,11 @@
       </c>
     </row>
     <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B605" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -8422,6 +11252,11 @@
       </c>
     </row>
     <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B606" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -8435,6 +11270,11 @@
       </c>
     </row>
     <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B607" t="inlineStr">
         <is>
           <t>Nopalucan</t>
@@ -8448,6 +11288,11 @@
       </c>
     </row>
     <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B608" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -8461,6 +11306,11 @@
       </c>
     </row>
     <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B609" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -8474,6 +11324,11 @@
       </c>
     </row>
     <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B610" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -8487,6 +11342,11 @@
       </c>
     </row>
     <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B611" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -8500,6 +11360,11 @@
       </c>
     </row>
     <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B612" t="inlineStr">
         <is>
           <t>Rafael Lara Grajales</t>
@@ -8513,6 +11378,11 @@
       </c>
     </row>
     <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B613" t="inlineStr">
         <is>
           <t>San Felipe Teotlalcingo</t>
@@ -8526,6 +11396,11 @@
       </c>
     </row>
     <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B614" t="inlineStr">
         <is>
           <t>San Gabriel Chilac</t>
@@ -8539,6 +11414,11 @@
       </c>
     </row>
     <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B615" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -8552,6 +11432,11 @@
       </c>
     </row>
     <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B616" t="inlineStr">
         <is>
           <t>San Nicolás Buenos Aires</t>
@@ -8565,6 +11450,11 @@
       </c>
     </row>
     <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B617" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -8578,6 +11468,11 @@
       </c>
     </row>
     <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B618" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -8591,6 +11486,11 @@
       </c>
     </row>
     <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B619" t="inlineStr">
         <is>
           <t>Santo Tomás Hueyotlipan</t>
@@ -8604,6 +11504,11 @@
       </c>
     </row>
     <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B620" t="inlineStr">
         <is>
           <t>Tecali De Herrera</t>
@@ -8617,6 +11522,11 @@
       </c>
     </row>
     <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B621" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -8630,6 +11540,11 @@
       </c>
     </row>
     <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B622" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -8643,6 +11558,11 @@
       </c>
     </row>
     <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B623" t="inlineStr">
         <is>
           <t>Tepatlaxco De Hidalgo</t>
@@ -8656,6 +11576,11 @@
       </c>
     </row>
     <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B624" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -8669,6 +11594,11 @@
       </c>
     </row>
     <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B625" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -8682,6 +11612,11 @@
       </c>
     </row>
     <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B626" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -8695,6 +11630,11 @@
       </c>
     </row>
     <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B627" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -8708,6 +11648,11 @@
       </c>
     </row>
     <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B628" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -8721,6 +11666,11 @@
       </c>
     </row>
     <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B629" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -8734,6 +11684,11 @@
       </c>
     </row>
     <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B630" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -8747,6 +11702,11 @@
       </c>
     </row>
     <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B631" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -8760,6 +11720,11 @@
       </c>
     </row>
     <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B632" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -8773,6 +11738,11 @@
       </c>
     </row>
     <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B633" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -8786,6 +11756,11 @@
       </c>
     </row>
     <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B634" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -8799,6 +11774,11 @@
       </c>
     </row>
     <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B635" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -8848,6 +11828,11 @@
       </c>
     </row>
     <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B638" t="inlineStr">
         <is>
           <t>Arroyo Seco</t>
@@ -8861,6 +11846,11 @@
       </c>
     </row>
     <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B639" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -8874,6 +11864,11 @@
       </c>
     </row>
     <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B640" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -8887,6 +11882,11 @@
       </c>
     </row>
     <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B641" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -8900,6 +11900,11 @@
       </c>
     </row>
     <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B642" t="inlineStr">
         <is>
           <t>Ezequiel Montes</t>
@@ -8913,6 +11918,11 @@
       </c>
     </row>
     <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B643" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -8926,6 +11936,11 @@
       </c>
     </row>
     <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B644" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -8939,6 +11954,11 @@
       </c>
     </row>
     <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B645" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -8952,6 +11972,11 @@
       </c>
     </row>
     <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B646" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -8965,6 +11990,11 @@
       </c>
     </row>
     <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B647" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -9014,6 +12044,11 @@
       </c>
     </row>
     <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B650" t="inlineStr">
         <is>
           <t>Othón P. Blanco</t>
@@ -9063,6 +12098,11 @@
       </c>
     </row>
     <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B653" t="inlineStr">
         <is>
           <t>Aquismón</t>
@@ -9076,6 +12116,11 @@
       </c>
     </row>
     <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B654" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -9089,6 +12134,11 @@
       </c>
     </row>
     <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B655" t="inlineStr">
         <is>
           <t>Cerritos</t>
@@ -9102,6 +12152,11 @@
       </c>
     </row>
     <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B656" t="inlineStr">
         <is>
           <t>Cerro De San Pedro</t>
@@ -9115,6 +12170,11 @@
       </c>
     </row>
     <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B657" t="inlineStr">
         <is>
           <t>Charcas</t>
@@ -9128,6 +12188,11 @@
       </c>
     </row>
     <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B658" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -9141,6 +12206,11 @@
       </c>
     </row>
     <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B659" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -9154,6 +12224,11 @@
       </c>
     </row>
     <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B660" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -9167,6 +12242,11 @@
       </c>
     </row>
     <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B661" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -9180,6 +12260,11 @@
       </c>
     </row>
     <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B662" t="inlineStr">
         <is>
           <t>Huehuetlán</t>
@@ -9193,6 +12278,11 @@
       </c>
     </row>
     <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B663" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -9206,6 +12296,11 @@
       </c>
     </row>
     <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B664" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -9219,6 +12314,11 @@
       </c>
     </row>
     <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B665" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -9232,6 +12332,11 @@
       </c>
     </row>
     <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B666" t="inlineStr">
         <is>
           <t>Moctezuma</t>
@@ -9245,6 +12350,11 @@
       </c>
     </row>
     <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B667" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -9258,6 +12368,11 @@
       </c>
     </row>
     <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B668" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -9271,6 +12386,11 @@
       </c>
     </row>
     <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B669" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -9284,6 +12404,11 @@
       </c>
     </row>
     <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B670" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -9297,6 +12422,11 @@
       </c>
     </row>
     <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B671" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -9310,6 +12440,11 @@
       </c>
     </row>
     <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B672" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -9323,6 +12458,11 @@
       </c>
     </row>
     <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B673" t="inlineStr">
         <is>
           <t>Soledad De Graciano Sánchez</t>
@@ -9336,6 +12476,11 @@
       </c>
     </row>
     <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B674" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -9349,6 +12494,11 @@
       </c>
     </row>
     <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B675" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -9362,6 +12512,11 @@
       </c>
     </row>
     <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B676" t="inlineStr">
         <is>
           <t>Tampacán</t>
@@ -9375,6 +12530,11 @@
       </c>
     </row>
     <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B677" t="inlineStr">
         <is>
           <t>Tamuín</t>
@@ -9388,6 +12548,11 @@
       </c>
     </row>
     <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B678" t="inlineStr">
         <is>
           <t>Tanlajás</t>
@@ -9401,6 +12566,11 @@
       </c>
     </row>
     <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B679" t="inlineStr">
         <is>
           <t>Tierra Nueva</t>
@@ -9414,6 +12584,11 @@
       </c>
     </row>
     <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B680" t="inlineStr">
         <is>
           <t>Villa De Arriaga</t>
@@ -9427,6 +12602,11 @@
       </c>
     </row>
     <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B681" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -9440,6 +12620,11 @@
       </c>
     </row>
     <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B682" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -9453,6 +12638,11 @@
       </c>
     </row>
     <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B683" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -9466,6 +12656,11 @@
       </c>
     </row>
     <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B684" t="inlineStr">
         <is>
           <t>Villa Juárez</t>
@@ -9479,6 +12674,11 @@
       </c>
     </row>
     <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B685" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -9528,6 +12728,11 @@
       </c>
     </row>
     <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B688" t="inlineStr">
         <is>
           <t>Angostura</t>
@@ -9541,6 +12746,11 @@
       </c>
     </row>
     <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B689" t="inlineStr">
         <is>
           <t>Badiraguato</t>
@@ -9554,6 +12764,11 @@
       </c>
     </row>
     <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B690" t="inlineStr">
         <is>
           <t>Choix</t>
@@ -9567,6 +12782,11 @@
       </c>
     </row>
     <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B691" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -9580,6 +12800,11 @@
       </c>
     </row>
     <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B692" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -9593,6 +12818,11 @@
       </c>
     </row>
     <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B693" t="inlineStr">
         <is>
           <t>Escuinapa</t>
@@ -9606,6 +12836,11 @@
       </c>
     </row>
     <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B694" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -9619,6 +12854,11 @@
       </c>
     </row>
     <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B695" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -9632,6 +12872,11 @@
       </c>
     </row>
     <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B696" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -9645,6 +12890,11 @@
       </c>
     </row>
     <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B697" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -9658,6 +12908,11 @@
       </c>
     </row>
     <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B698" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -9707,6 +12962,11 @@
       </c>
     </row>
     <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B701" t="inlineStr">
         <is>
           <t>Bacadéhuachi</t>
@@ -9720,6 +12980,11 @@
       </c>
     </row>
     <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B702" t="inlineStr">
         <is>
           <t>Bácum</t>
@@ -9733,6 +12998,11 @@
       </c>
     </row>
     <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B703" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -9746,6 +13016,11 @@
       </c>
     </row>
     <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B704" t="inlineStr">
         <is>
           <t>Caborca</t>
@@ -9759,6 +13034,11 @@
       </c>
     </row>
     <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B705" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -9772,6 +13052,11 @@
       </c>
     </row>
     <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B706" t="inlineStr">
         <is>
           <t>Etchojoa</t>
@@ -9785,6 +13070,11 @@
       </c>
     </row>
     <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B707" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -9798,6 +13088,11 @@
       </c>
     </row>
     <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B708" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -9811,6 +13106,11 @@
       </c>
     </row>
     <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B709" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -9824,6 +13124,11 @@
       </c>
     </row>
     <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B710" t="inlineStr">
         <is>
           <t>Naco</t>
@@ -9837,6 +13142,11 @@
       </c>
     </row>
     <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B711" t="inlineStr">
         <is>
           <t>Nacozari De García</t>
@@ -9850,6 +13160,11 @@
       </c>
     </row>
     <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B712" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -9863,6 +13178,11 @@
       </c>
     </row>
     <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B713" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -9876,6 +13196,11 @@
       </c>
     </row>
     <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B714" t="inlineStr">
         <is>
           <t>San Luis Río Colorado</t>
@@ -9889,6 +13214,11 @@
       </c>
     </row>
     <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B715" t="inlineStr">
         <is>
           <t>Ures</t>
@@ -9938,6 +13268,11 @@
       </c>
     </row>
     <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B718" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -9951,6 +13286,11 @@
       </c>
     </row>
     <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B719" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -9964,6 +13304,11 @@
       </c>
     </row>
     <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B720" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -9977,6 +13322,11 @@
       </c>
     </row>
     <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B721" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -9990,6 +13340,11 @@
       </c>
     </row>
     <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B722" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -10003,6 +13358,11 @@
       </c>
     </row>
     <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B723" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -10052,6 +13412,11 @@
       </c>
     </row>
     <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B726" t="inlineStr">
         <is>
           <t>Antiguo Morelos</t>
@@ -10065,6 +13430,11 @@
       </c>
     </row>
     <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B727" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -10078,6 +13448,11 @@
       </c>
     </row>
     <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B728" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -10091,6 +13466,11 @@
       </c>
     </row>
     <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B729" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -10104,6 +13484,11 @@
       </c>
     </row>
     <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B730" t="inlineStr">
         <is>
           <t>González</t>
@@ -10117,6 +13502,11 @@
       </c>
     </row>
     <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B731" t="inlineStr">
         <is>
           <t>Gustavo Díaz Ordaz</t>
@@ -10130,6 +13520,11 @@
       </c>
     </row>
     <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B732" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -10143,6 +13538,11 @@
       </c>
     </row>
     <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B733" t="inlineStr">
         <is>
           <t>Méndez</t>
@@ -10156,6 +13556,11 @@
       </c>
     </row>
     <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B734" t="inlineStr">
         <is>
           <t>Miguel Alemán</t>
@@ -10169,6 +13574,11 @@
       </c>
     </row>
     <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B735" t="inlineStr">
         <is>
           <t>Miquihuana</t>
@@ -10182,6 +13592,11 @@
       </c>
     </row>
     <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B736" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -10195,6 +13610,11 @@
       </c>
     </row>
     <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B737" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -10208,6 +13628,11 @@
       </c>
     </row>
     <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B738" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -10221,6 +13646,11 @@
       </c>
     </row>
     <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B739" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -10234,6 +13664,11 @@
       </c>
     </row>
     <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B740" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -10247,6 +13682,11 @@
       </c>
     </row>
     <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B741" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -10260,6 +13700,11 @@
       </c>
     </row>
     <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B742" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -10273,6 +13718,11 @@
       </c>
     </row>
     <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B743" t="inlineStr">
         <is>
           <t>Xicoténcatl</t>
@@ -10322,6 +13772,11 @@
       </c>
     </row>
     <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B746" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -10335,6 +13790,11 @@
       </c>
     </row>
     <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B747" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -10348,6 +13808,11 @@
       </c>
     </row>
     <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B748" t="inlineStr">
         <is>
           <t>Nanacamilpa De Mariano Arista</t>
@@ -10361,6 +13826,11 @@
       </c>
     </row>
     <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B749" t="inlineStr">
         <is>
           <t>Natívitas</t>
@@ -10374,6 +13844,11 @@
       </c>
     </row>
     <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B750" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -10387,6 +13862,11 @@
       </c>
     </row>
     <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B751" t="inlineStr">
         <is>
           <t>Papalotla De Xicohténcatl</t>
@@ -10400,6 +13880,11 @@
       </c>
     </row>
     <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B752" t="inlineStr">
         <is>
           <t>Teolocholco</t>
@@ -10413,6 +13898,11 @@
       </c>
     </row>
     <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B753" t="inlineStr">
         <is>
           <t>Tepetitla De Lardizábal</t>
@@ -10426,6 +13916,11 @@
       </c>
     </row>
     <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B754" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -10439,6 +13934,11 @@
       </c>
     </row>
     <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B755" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -10452,6 +13952,11 @@
       </c>
     </row>
     <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B756" t="inlineStr">
         <is>
           <t>Xaloztoc</t>
@@ -10465,6 +13970,11 @@
       </c>
     </row>
     <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B757" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -10514,6 +14024,11 @@
       </c>
     </row>
     <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B760" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -10527,6 +14042,11 @@
       </c>
     </row>
     <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B761" t="inlineStr">
         <is>
           <t>Acultzingo</t>
@@ -10540,6 +14060,11 @@
       </c>
     </row>
     <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B762" t="inlineStr">
         <is>
           <t>Alpatláhuac</t>
@@ -10553,6 +14078,11 @@
       </c>
     </row>
     <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B763" t="inlineStr">
         <is>
           <t>Alto Lucero De Gutiérrez Barrios</t>
@@ -10566,6 +14096,11 @@
       </c>
     </row>
     <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B764" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -10579,6 +14114,11 @@
       </c>
     </row>
     <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B765" t="inlineStr">
         <is>
           <t>Alvarado</t>
@@ -10592,6 +14132,11 @@
       </c>
     </row>
     <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B766" t="inlineStr">
         <is>
           <t>Amatitlán</t>
@@ -10605,6 +14150,11 @@
       </c>
     </row>
     <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B767" t="inlineStr">
         <is>
           <t>Amatlán De Los Reyes</t>
@@ -10618,6 +14168,11 @@
       </c>
     </row>
     <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B768" t="inlineStr">
         <is>
           <t>Apazapan</t>
@@ -10631,6 +14186,11 @@
       </c>
     </row>
     <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B769" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -10644,6 +14204,11 @@
       </c>
     </row>
     <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B770" t="inlineStr">
         <is>
           <t>Boca Del Río</t>
@@ -10657,6 +14222,11 @@
       </c>
     </row>
     <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B771" t="inlineStr">
         <is>
           <t>Carlos A. Carrillo</t>
@@ -10670,6 +14240,11 @@
       </c>
     </row>
     <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B772" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -10683,6 +14258,11 @@
       </c>
     </row>
     <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B773" t="inlineStr">
         <is>
           <t>Chacaltianguis</t>
@@ -10696,6 +14276,11 @@
       </c>
     </row>
     <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B774" t="inlineStr">
         <is>
           <t>Chiconquiaco</t>
@@ -10709,6 +14294,11 @@
       </c>
     </row>
     <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B775" t="inlineStr">
         <is>
           <t>Chicontepec</t>
@@ -10722,6 +14312,11 @@
       </c>
     </row>
     <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B776" t="inlineStr">
         <is>
           <t>Chocamán</t>
@@ -10735,6 +14330,11 @@
       </c>
     </row>
     <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B777" t="inlineStr">
         <is>
           <t>Coacoatzintla</t>
@@ -10748,6 +14348,11 @@
       </c>
     </row>
     <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B778" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -10761,6 +14366,11 @@
       </c>
     </row>
     <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B779" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -10774,6 +14384,11 @@
       </c>
     </row>
     <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B780" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -10787,6 +14402,11 @@
       </c>
     </row>
     <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B781" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -10800,6 +14420,11 @@
       </c>
     </row>
     <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B782" t="inlineStr">
         <is>
           <t>Cosoleacaque</t>
@@ -10813,6 +14438,11 @@
       </c>
     </row>
     <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B783" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -10826,6 +14456,11 @@
       </c>
     </row>
     <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B784" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -10839,6 +14474,11 @@
       </c>
     </row>
     <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B785" t="inlineStr">
         <is>
           <t>Cuichapa</t>
@@ -10852,6 +14492,11 @@
       </c>
     </row>
     <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B786" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -10865,6 +14510,11 @@
       </c>
     </row>
     <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B787" t="inlineStr">
         <is>
           <t>Fortín</t>
@@ -10878,6 +14528,11 @@
       </c>
     </row>
     <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B788" t="inlineStr">
         <is>
           <t>Gutiérrez Zamora</t>
@@ -10891,6 +14546,11 @@
       </c>
     </row>
     <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B789" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -10904,6 +14564,11 @@
       </c>
     </row>
     <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B790" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -10917,6 +14582,11 @@
       </c>
     </row>
     <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B791" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -10930,6 +14600,11 @@
       </c>
     </row>
     <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B792" t="inlineStr">
         <is>
           <t>Ixmatlahuacan</t>
@@ -10943,6 +14618,11 @@
       </c>
     </row>
     <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B793" t="inlineStr">
         <is>
           <t>Ixtaczoquitlán</t>
@@ -10956,6 +14636,11 @@
       </c>
     </row>
     <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B794" t="inlineStr">
         <is>
           <t>Jáltipan</t>
@@ -10969,6 +14654,11 @@
       </c>
     </row>
     <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B795" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -10982,6 +14672,11 @@
       </c>
     </row>
     <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B796" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -10995,6 +14690,11 @@
       </c>
     </row>
     <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B797" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -11008,6 +14708,11 @@
       </c>
     </row>
     <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B798" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -11021,6 +14726,11 @@
       </c>
     </row>
     <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B799" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -11034,6 +14744,11 @@
       </c>
     </row>
     <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B800" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -11047,6 +14762,11 @@
       </c>
     </row>
     <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B801" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -11060,6 +14780,11 @@
       </c>
     </row>
     <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B802" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -11073,6 +14798,11 @@
       </c>
     </row>
     <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B803" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -11086,6 +14816,11 @@
       </c>
     </row>
     <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B804" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -11099,6 +14834,11 @@
       </c>
     </row>
     <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B805" t="inlineStr">
         <is>
           <t>Medellín</t>
@@ -11112,6 +14852,11 @@
       </c>
     </row>
     <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B806" t="inlineStr">
         <is>
           <t>Miahuatlán</t>
@@ -11125,6 +14870,11 @@
       </c>
     </row>
     <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B807" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -11138,6 +14888,11 @@
       </c>
     </row>
     <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B808" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -11151,6 +14906,11 @@
       </c>
     </row>
     <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B809" t="inlineStr">
         <is>
           <t>Naranjal</t>
@@ -11164,6 +14924,11 @@
       </c>
     </row>
     <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B810" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -11177,6 +14942,11 @@
       </c>
     </row>
     <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B811" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -11190,6 +14960,11 @@
       </c>
     </row>
     <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B812" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -11203,6 +14978,11 @@
       </c>
     </row>
     <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B813" t="inlineStr">
         <is>
           <t>Otatitlán</t>
@@ -11216,6 +14996,11 @@
       </c>
     </row>
     <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B814" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -11229,6 +15014,11 @@
       </c>
     </row>
     <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B815" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -11242,6 +15032,11 @@
       </c>
     </row>
     <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B816" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -11255,6 +15050,11 @@
       </c>
     </row>
     <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B817" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -11268,6 +15068,11 @@
       </c>
     </row>
     <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B818" t="inlineStr">
         <is>
           <t>Río Blanco</t>
@@ -11281,6 +15086,11 @@
       </c>
     </row>
     <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B819" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -11294,6 +15104,11 @@
       </c>
     </row>
     <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B820" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -11307,6 +15122,11 @@
       </c>
     </row>
     <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B821" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -11320,6 +15140,11 @@
       </c>
     </row>
     <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B822" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -11333,6 +15158,11 @@
       </c>
     </row>
     <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B823" t="inlineStr">
         <is>
           <t>Tempoal</t>
@@ -11346,6 +15176,11 @@
       </c>
     </row>
     <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B824" t="inlineStr">
         <is>
           <t>Tepatlaxco</t>
@@ -11359,6 +15194,11 @@
       </c>
     </row>
     <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B825" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -11372,6 +15212,11 @@
       </c>
     </row>
     <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B826" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -11385,6 +15230,11 @@
       </c>
     </row>
     <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B827" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -11398,6 +15248,11 @@
       </c>
     </row>
     <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B828" t="inlineStr">
         <is>
           <t>Tlachichilco</t>
@@ -11411,6 +15266,11 @@
       </c>
     </row>
     <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B829" t="inlineStr">
         <is>
           <t>Tlacojalpan</t>
@@ -11424,6 +15284,11 @@
       </c>
     </row>
     <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B830" t="inlineStr">
         <is>
           <t>Tlacolulan</t>
@@ -11437,6 +15302,11 @@
       </c>
     </row>
     <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B831" t="inlineStr">
         <is>
           <t>Tlacotalpan</t>
@@ -11450,6 +15320,11 @@
       </c>
     </row>
     <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B832" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -11463,6 +15338,11 @@
       </c>
     </row>
     <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B833" t="inlineStr">
         <is>
           <t>Tlalnelhuayocan</t>
@@ -11476,6 +15356,11 @@
       </c>
     </row>
     <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B834" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -11489,6 +15374,11 @@
       </c>
     </row>
     <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B835" t="inlineStr">
         <is>
           <t>Tonayán</t>
@@ -11502,6 +15392,11 @@
       </c>
     </row>
     <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B836" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -11515,6 +15410,11 @@
       </c>
     </row>
     <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B837" t="inlineStr">
         <is>
           <t>Tuxpam</t>
@@ -11528,6 +15428,11 @@
       </c>
     </row>
     <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B838" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -11541,6 +15446,11 @@
       </c>
     </row>
     <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B839" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -11554,6 +15464,11 @@
       </c>
     </row>
     <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B840" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -11567,6 +15482,11 @@
       </c>
     </row>
     <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B841" t="inlineStr">
         <is>
           <t>Yecuatla</t>
@@ -11580,6 +15500,11 @@
       </c>
     </row>
     <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B842" t="inlineStr">
         <is>
           <t>Total</t>
@@ -11611,6 +15536,11 @@
       </c>
     </row>
     <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B844" t="inlineStr">
         <is>
           <t>Mérida</t>
@@ -11624,6 +15554,11 @@
       </c>
     </row>
     <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B845" t="inlineStr">
         <is>
           <t>Muna</t>
@@ -11637,6 +15572,11 @@
       </c>
     </row>
     <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B846" t="inlineStr">
         <is>
           <t>Peto</t>
@@ -11650,6 +15590,11 @@
       </c>
     </row>
     <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B847" t="inlineStr">
         <is>
           <t>Tixpéhual</t>
@@ -11699,6 +15644,11 @@
       </c>
     </row>
     <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B850" t="inlineStr">
         <is>
           <t>Apulco</t>
@@ -11712,6 +15662,11 @@
       </c>
     </row>
     <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B851" t="inlineStr">
         <is>
           <t>Atolinga</t>
@@ -11725,6 +15680,11 @@
       </c>
     </row>
     <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B852" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -11738,6 +15698,11 @@
       </c>
     </row>
     <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B853" t="inlineStr">
         <is>
           <t>Calera</t>
@@ -11751,6 +15716,11 @@
       </c>
     </row>
     <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B854" t="inlineStr">
         <is>
           <t>Cañitas De Felipe Pescador</t>
@@ -11764,6 +15734,11 @@
       </c>
     </row>
     <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B855" t="inlineStr">
         <is>
           <t>Chalchihuites</t>
@@ -11777,6 +15752,11 @@
       </c>
     </row>
     <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B856" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -11790,6 +15770,11 @@
       </c>
     </row>
     <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B857" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -11803,6 +15788,11 @@
       </c>
     </row>
     <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B858" t="inlineStr">
         <is>
           <t>General Enrique Estrada</t>
@@ -11816,6 +15806,11 @@
       </c>
     </row>
     <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B859" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -11829,6 +15824,11 @@
       </c>
     </row>
     <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B860" t="inlineStr">
         <is>
           <t>General Pánfilo Natera</t>
@@ -11842,6 +15842,11 @@
       </c>
     </row>
     <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B861" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -11855,6 +15860,11 @@
       </c>
     </row>
     <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B862" t="inlineStr">
         <is>
           <t>Huanusco</t>
@@ -11868,6 +15878,11 @@
       </c>
     </row>
     <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B863" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -11881,6 +15896,11 @@
       </c>
     </row>
     <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B864" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -11894,6 +15914,11 @@
       </c>
     </row>
     <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B865" t="inlineStr">
         <is>
           <t>Jiménez Del Teul</t>
@@ -11907,6 +15932,11 @@
       </c>
     </row>
     <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B866" t="inlineStr">
         <is>
           <t>Juan Aldama</t>
@@ -11920,6 +15950,11 @@
       </c>
     </row>
     <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B867" t="inlineStr">
         <is>
           <t>Luis Moya</t>
@@ -11933,6 +15968,11 @@
       </c>
     </row>
     <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B868" t="inlineStr">
         <is>
           <t>Mazapil</t>
@@ -11946,6 +15986,11 @@
       </c>
     </row>
     <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B869" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -11959,6 +16004,11 @@
       </c>
     </row>
     <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B870" t="inlineStr">
         <is>
           <t>Momax</t>
@@ -11972,6 +16022,11 @@
       </c>
     </row>
     <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B871" t="inlineStr">
         <is>
           <t>Monte Escobedo</t>
@@ -11985,6 +16040,11 @@
       </c>
     </row>
     <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B872" t="inlineStr">
         <is>
           <t>Nochistlán De Mejía</t>
@@ -11998,6 +16058,11 @@
       </c>
     </row>
     <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B873" t="inlineStr">
         <is>
           <t>Noria De Ángeles</t>
@@ -12011,6 +16076,11 @@
       </c>
     </row>
     <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B874" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -12024,6 +16094,11 @@
       </c>
     </row>
     <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B875" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -12037,6 +16112,11 @@
       </c>
     </row>
     <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B876" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -12050,6 +16130,11 @@
       </c>
     </row>
     <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B877" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -12063,6 +16148,11 @@
       </c>
     </row>
     <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B878" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -12076,6 +16166,11 @@
       </c>
     </row>
     <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B879" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -12089,6 +16184,11 @@
       </c>
     </row>
     <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B880" t="inlineStr">
         <is>
           <t>Susticacán</t>
@@ -12102,6 +16202,11 @@
       </c>
     </row>
     <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B881" t="inlineStr">
         <is>
           <t>Tabasco</t>
@@ -12115,6 +16220,11 @@
       </c>
     </row>
     <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B882" t="inlineStr">
         <is>
           <t>Tepechitlán</t>
@@ -12128,6 +16238,11 @@
       </c>
     </row>
     <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B883" t="inlineStr">
         <is>
           <t>Tepetongo</t>
@@ -12141,6 +16256,11 @@
       </c>
     </row>
     <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B884" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -12154,6 +16274,11 @@
       </c>
     </row>
     <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B885" t="inlineStr">
         <is>
           <t>Trancoso</t>
@@ -12167,6 +16292,11 @@
       </c>
     </row>
     <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B886" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -12180,6 +16310,11 @@
       </c>
     </row>
     <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B887" t="inlineStr">
         <is>
           <t>Vetagrande</t>
@@ -12193,6 +16328,11 @@
       </c>
     </row>
     <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B888" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -12206,6 +16346,11 @@
       </c>
     </row>
     <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B889" t="inlineStr">
         <is>
           <t>Villa García</t>
@@ -12219,6 +16364,11 @@
       </c>
     </row>
     <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B890" t="inlineStr">
         <is>
           <t>Villa González Ortega</t>
@@ -12232,6 +16382,11 @@
       </c>
     </row>
     <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B891" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -12245,6 +16400,11 @@
       </c>
     </row>
     <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B892" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -12258,6 +16418,11 @@
       </c>
     </row>
     <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B893" t="inlineStr">
         <is>
           <t>Zacatecas</t>
